--- a/datacovidhn/ALIMENTACION_HN.xlsx
+++ b/datacovidhn/ALIMENTACION_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="8_{2E7B08DD-615A-4A26-9C8E-D4330F5D4097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E45FD08E-DFDF-41BE-AA89-E604E4FCC90A}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="8_{2E7B08DD-615A-4A26-9C8E-D4330F5D4097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F6433AE5-3CEB-4ECD-A184-4A5696E6CCA0}"/>
   <bookViews>
     <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ALIMENTACION" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ALIMENTACION!$A$1:$V$256</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ALIMENTACION!$A$1:$V$255</definedName>
     <definedName name="_xlnm.Database">ALIMENTACION!$A$1:$T$255</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3847" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="419">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -1930,8 +1930,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3102A056-5222-4234-BA9B-734A45734C30}" name="ALIMENTACION_HN" displayName="ALIMENTACION_HN" ref="A1:V256" totalsRowShown="0" headerRowDxfId="22">
-  <autoFilter ref="A1:V256" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3102A056-5222-4234-BA9B-734A45734C30}" name="ALIMENTACION_HN" displayName="ALIMENTACION_HN" ref="A1:V255" totalsRowShown="0" headerRowDxfId="22">
+  <autoFilter ref="A1:V255" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{72EFC8A3-7F7E-43ED-A5A6-542387FEE48F}" name="OBJECTID_1" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{E5F0AA7C-EAE9-4EBF-8A11-FABC8E4AD95A}" name="Pais_cod3" dataDxfId="20"/>
@@ -2257,11 +2257,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V256"/>
+  <dimension ref="A1:V255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B256" sqref="B256"/>
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B257" sqref="B257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -19630,74 +19630,6 @@
         <v>-88.582599999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:22">
-      <c r="A256" s="1">
-        <v>28207</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D256" s="1">
-        <v>3</v>
-      </c>
-      <c r="E256" s="1">
-        <v>3</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G256" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H256" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I256" s="1">
-        <v>18</v>
-      </c>
-      <c r="J256" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K256" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L256" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M256" s="1">
-        <v>1</v>
-      </c>
-      <c r="N256" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O256" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P256" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q256" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R256" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S256" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="T256" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="U256" s="2">
-        <v>14.591900000000001</v>
-      </c>
-      <c r="V256" s="2">
-        <v>-87.834199999999996</v>
-      </c>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T255">
     <sortCondition ref="R2:R255"/>
